--- a/남서울CC.xlsx
+++ b/남서울CC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\Python\GPSGolfWatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Python\gpswatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935EF68-00B5-4D78-A705-E3CFAA4EFC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8336ED2-12FD-4B87-8DFD-FFFF7640EF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16215" yWindow="540" windowWidth="21795" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -396,19 +396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>142.80000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -450,1585 +450,1529 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>37.381836999999997</v>
+        <v>37.381807000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>127.082883</v>
+        <v>127.08296300000001</v>
       </c>
       <c r="D4" s="1">
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>37.381807000000002</v>
+        <v>37.381675000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>127.08296300000001</v>
+        <v>127.08299</v>
       </c>
       <c r="D5" s="1">
-        <v>142.69999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>37.381746999999997</v>
+        <v>37.38156</v>
       </c>
       <c r="C6" s="1">
-        <v>127.08299</v>
+        <v>127.082926</v>
       </c>
       <c r="D6" s="1">
-        <v>142.69999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>37.381675000000001</v>
+        <v>37.381439999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>127.08299</v>
+        <v>127.082813</v>
       </c>
       <c r="D7" s="1">
-        <v>142.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>37.381614999999996</v>
+        <v>37.38138</v>
       </c>
       <c r="C8" s="1">
-        <v>127.082931</v>
+        <v>127.082802</v>
       </c>
       <c r="D8" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>37.38156</v>
+        <v>37.381321</v>
       </c>
       <c r="C9" s="1">
-        <v>127.082926</v>
+        <v>127.082813</v>
       </c>
       <c r="D9" s="1">
-        <v>142.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>37.381507999999997</v>
+        <v>37.381261000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>127.08284500000001</v>
+        <v>127.082824</v>
       </c>
       <c r="D10" s="1">
-        <v>142.19999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>37.381439999999998</v>
+        <v>37.381242</v>
       </c>
       <c r="C11" s="1">
         <v>127.082813</v>
       </c>
       <c r="D11" s="1">
-        <v>141.69999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>37.38138</v>
+        <v>37.381220999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>127.082802</v>
+        <v>127.082808</v>
       </c>
       <c r="D12" s="1">
-        <v>140.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>37.381321</v>
+        <v>37.381197999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>127.082813</v>
+        <v>127.08282</v>
       </c>
       <c r="D13" s="1">
-        <v>139.19999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>37.381261000000002</v>
+        <v>37.381176000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>127.082824</v>
+        <v>127.082836</v>
       </c>
       <c r="D14" s="1">
-        <v>137.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>37.381242</v>
+        <v>37.381154000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>127.082813</v>
+        <v>127.08285100000001</v>
       </c>
       <c r="D15" s="1">
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>37.381220999999996</v>
+        <v>37.381127999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>127.082808</v>
+        <v>127.082853</v>
       </c>
       <c r="D16" s="1">
-        <v>137.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>37.381197999999998</v>
+        <v>37.381101000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>127.08282</v>
+        <v>127.08286</v>
       </c>
       <c r="D17" s="1">
-        <v>136.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>37.381176000000004</v>
+        <v>37.381079</v>
       </c>
       <c r="C18" s="1">
-        <v>127.082836</v>
+        <v>127.082849</v>
       </c>
       <c r="D18" s="1">
-        <v>136.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>37.381154000000002</v>
+        <v>37.381053999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>127.08285100000001</v>
+        <v>127.082829</v>
       </c>
       <c r="D19" s="1">
-        <v>135.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>37.381127999999997</v>
+        <v>37.381039999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>127.082853</v>
+        <v>127.082784</v>
       </c>
       <c r="D20" s="1">
-        <v>135.19999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>37.381101000000001</v>
+        <v>37.381019999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>127.08286</v>
+        <v>127.082746</v>
       </c>
       <c r="D21" s="1">
-        <v>134.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>37.381079</v>
+        <v>37.381008999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>127.082849</v>
+        <v>127.082701</v>
       </c>
       <c r="D22" s="1">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>37.381053999999999</v>
+        <v>37.380986</v>
       </c>
       <c r="C23" s="1">
-        <v>127.082829</v>
+        <v>127.082684</v>
       </c>
       <c r="D23" s="1">
-        <v>134.69999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>37.381039999999999</v>
+        <v>37.380965000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>127.082784</v>
+        <v>127.082672</v>
       </c>
       <c r="D24" s="1">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>37.381019999999999</v>
+        <v>37.380938</v>
       </c>
       <c r="C25" s="1">
-        <v>127.082746</v>
+        <v>127.082641</v>
       </c>
       <c r="D25" s="1">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>37.381008999999999</v>
+        <v>37.380904999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>127.082701</v>
+        <v>127.082615</v>
       </c>
       <c r="D26" s="1">
-        <v>134.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>37.380986</v>
+        <v>37.380879</v>
       </c>
       <c r="C27" s="1">
-        <v>127.082684</v>
+        <v>127.082588</v>
       </c>
       <c r="D27" s="1">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>37.380965000000003</v>
+        <v>37.380853999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>127.082672</v>
+        <v>127.082565</v>
       </c>
       <c r="D28" s="1">
-        <v>134.69999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>37.380938</v>
+        <v>37.380834999999998</v>
       </c>
       <c r="C29" s="1">
-        <v>127.082641</v>
+        <v>127.082548</v>
       </c>
       <c r="D29" s="1">
-        <v>134.69999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>37.380904999999998</v>
+        <v>37.380814999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>127.082615</v>
+        <v>127.08253000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>134.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>37.380879</v>
+        <v>37.380794000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>127.082588</v>
+        <v>127.082503</v>
       </c>
       <c r="D31" s="1">
-        <v>134.69999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>37.380853999999999</v>
+        <v>37.380777999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>127.082565</v>
+        <v>127.082474</v>
       </c>
       <c r="D32" s="1">
         <v>134.80000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>37.380834999999998</v>
+        <v>37.380755000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>127.082548</v>
+        <v>127.082452</v>
       </c>
       <c r="D33" s="1">
-        <v>134.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>37.380814999999998</v>
+        <v>37.380721000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>127.08253000000001</v>
+        <v>127.082421</v>
       </c>
       <c r="D34" s="1">
-        <v>134.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>37.380794000000002</v>
+        <v>37.380704999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>127.082503</v>
+        <v>127.08238</v>
       </c>
       <c r="D35" s="1">
-        <v>134.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>37.380777999999999</v>
+        <v>37.380685999999997</v>
       </c>
       <c r="C36" s="1">
-        <v>127.082474</v>
+        <v>127.082334</v>
       </c>
       <c r="D36" s="1">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>37.380755000000001</v>
+        <v>37.380664000000003</v>
       </c>
       <c r="C37" s="1">
-        <v>127.082452</v>
+        <v>127.082286</v>
       </c>
       <c r="D37" s="1">
-        <v>134.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>37.380721000000001</v>
+        <v>37.380631000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>127.082421</v>
+        <v>127.08224</v>
       </c>
       <c r="D38" s="1">
         <v>133.9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>37.380704999999999</v>
+        <v>37.380586999999998</v>
       </c>
       <c r="C39" s="1">
-        <v>127.08238</v>
+        <v>127.082194</v>
       </c>
       <c r="D39" s="1">
-        <v>133.80000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>37.380685999999997</v>
+        <v>37.380552999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>127.082334</v>
+        <v>127.08215199999999</v>
       </c>
       <c r="D40" s="1">
-        <v>133.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>37.380664000000003</v>
+        <v>37.380515000000003</v>
       </c>
       <c r="C41" s="1">
-        <v>127.082286</v>
+        <v>127.08210200000001</v>
       </c>
       <c r="D41" s="1">
-        <v>133.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>37.380631000000001</v>
+        <v>37.380464000000003</v>
       </c>
       <c r="C42" s="1">
-        <v>127.08224</v>
+        <v>127.08205100000001</v>
       </c>
       <c r="D42" s="1">
-        <v>133.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132.80000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>37.380586999999998</v>
+        <v>37.380394000000003</v>
       </c>
       <c r="C43" s="1">
-        <v>127.082194</v>
+        <v>127.081971</v>
       </c>
       <c r="D43" s="1">
-        <v>133.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132.80000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>37.380552999999999</v>
+        <v>37.380327999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>127.08215199999999</v>
+        <v>127.08190399999999</v>
       </c>
       <c r="D44" s="1">
-        <v>133.19999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>37.380515000000003</v>
+        <v>37.380253000000003</v>
       </c>
       <c r="C45" s="1">
-        <v>127.08210200000001</v>
+        <v>127.081829</v>
       </c>
       <c r="D45" s="1">
-        <v>132.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>37.380464000000003</v>
+        <v>37.380195000000001</v>
       </c>
       <c r="C46" s="1">
-        <v>127.08205100000001</v>
+        <v>127.08177000000001</v>
       </c>
       <c r="D46" s="1">
-        <v>132.80000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>37.380394000000003</v>
+        <v>37.380121000000003</v>
       </c>
       <c r="C47" s="1">
-        <v>127.081971</v>
+        <v>127.081711</v>
       </c>
       <c r="D47" s="1">
-        <v>132.80000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>37.380327999999999</v>
+        <v>37.380043999999998</v>
       </c>
       <c r="C48" s="1">
-        <v>127.08190399999999</v>
+        <v>127.081654</v>
       </c>
       <c r="D48" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>37.380253000000003</v>
+        <v>37.379978000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>127.081829</v>
+        <v>127.08159000000001</v>
       </c>
       <c r="D49" s="1">
-        <v>133.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>37.380195000000001</v>
+        <v>37.379927000000002</v>
       </c>
       <c r="C50" s="1">
-        <v>127.08177000000001</v>
+        <v>127.081558</v>
       </c>
       <c r="D50" s="1">
-        <v>134.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>37.380121000000003</v>
+        <v>37.379857000000001</v>
       </c>
       <c r="C51" s="1">
-        <v>127.081711</v>
+        <v>127.08156</v>
       </c>
       <c r="D51" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>37.380043999999998</v>
+        <v>37.379795000000001</v>
       </c>
       <c r="C52" s="1">
-        <v>127.081654</v>
+        <v>127.08152800000001</v>
       </c>
       <c r="D52" s="1">
-        <v>135.30000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136.80000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>37.379978000000001</v>
+        <v>37.379716000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>127.08159000000001</v>
+        <v>127.081504</v>
       </c>
       <c r="D53" s="1">
-        <v>135.69999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>37.379927000000002</v>
+        <v>37.379643000000002</v>
       </c>
       <c r="C54" s="1">
-        <v>127.081558</v>
+        <v>127.08147200000001</v>
       </c>
       <c r="D54" s="1">
-        <v>136.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>37.379857000000001</v>
+        <v>37.379556000000001</v>
       </c>
       <c r="C55" s="1">
-        <v>127.08156</v>
+        <v>127.081429</v>
       </c>
       <c r="D55" s="1">
-        <v>136.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>37.379795000000001</v>
+        <v>37.379489999999997</v>
       </c>
       <c r="C56" s="1">
-        <v>127.08152800000001</v>
+        <v>127.081397</v>
       </c>
       <c r="D56" s="1">
-        <v>136.80000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>37.379716000000002</v>
+        <v>37.379404999999998</v>
       </c>
       <c r="C57" s="1">
-        <v>127.081504</v>
+        <v>127.081346</v>
       </c>
       <c r="D57" s="1">
-        <v>137.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>37.379643000000002</v>
+        <v>37.379337</v>
       </c>
       <c r="C58" s="1">
-        <v>127.08147200000001</v>
+        <v>127.08129</v>
       </c>
       <c r="D58" s="1">
-        <v>137.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>37.379556000000001</v>
+        <v>37.379266000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>127.081429</v>
+        <v>127.081231</v>
       </c>
       <c r="D59" s="1">
-        <v>138.30000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>37.379489999999997</v>
+        <v>37.379182999999998</v>
       </c>
       <c r="C60" s="1">
-        <v>127.081397</v>
+        <v>127.081182</v>
       </c>
       <c r="D60" s="1">
-        <v>138.80000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>37.379404999999998</v>
+        <v>37.379125999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>127.081346</v>
+        <v>127.081129</v>
       </c>
       <c r="D61" s="1">
-        <v>139.19999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142.69999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>37.379337</v>
+        <v>37.379072000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>127.08129</v>
+        <v>127.08108</v>
       </c>
       <c r="D62" s="1">
-        <v>139.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143.69999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>37.379266000000001</v>
+        <v>37.379005999999997</v>
       </c>
       <c r="C63" s="1">
-        <v>127.081231</v>
+        <v>127.081035</v>
       </c>
       <c r="D63" s="1">
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>37.379182999999998</v>
+        <v>37.378928999999999</v>
       </c>
       <c r="C64" s="1">
-        <v>127.081182</v>
+        <v>127.08097600000001</v>
       </c>
       <c r="D64" s="1">
-        <v>141.69999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>37.379125999999999</v>
+        <v>37.378889000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>127.081129</v>
+        <v>127.080941</v>
       </c>
       <c r="D65" s="1">
-        <v>142.69999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>37.379072000000001</v>
+        <v>37.378836</v>
       </c>
       <c r="C66" s="1">
-        <v>127.08108</v>
+        <v>127.08090300000001</v>
       </c>
       <c r="D66" s="1">
-        <v>143.69999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>37.379005999999997</v>
+        <v>37.378765000000001</v>
       </c>
       <c r="C67" s="1">
-        <v>127.081035</v>
+        <v>127.08087399999999</v>
       </c>
       <c r="D67" s="1">
-        <v>144.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>37.378928999999999</v>
+        <v>37.378695</v>
       </c>
       <c r="C68" s="1">
-        <v>127.08097600000001</v>
+        <v>127.08085</v>
       </c>
       <c r="D68" s="1">
-        <v>145.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>37.378889000000001</v>
+        <v>37.378652000000002</v>
       </c>
       <c r="C69" s="1">
-        <v>127.080941</v>
+        <v>127.080834</v>
       </c>
       <c r="D69" s="1">
-        <v>145.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>37.378836</v>
+        <v>37.378585999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>127.08090300000001</v>
+        <v>127.080842</v>
       </c>
       <c r="D70" s="1">
-        <v>146.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>37.378765000000001</v>
+        <v>37.378529</v>
       </c>
       <c r="C71" s="1">
-        <v>127.08087399999999</v>
+        <v>127.080842</v>
       </c>
       <c r="D71" s="1">
-        <v>147.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>37.378695</v>
+        <v>37.378478000000001</v>
       </c>
       <c r="C72" s="1">
-        <v>127.08085</v>
+        <v>127.08084700000001</v>
       </c>
       <c r="D72" s="1">
-        <v>148.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>37.378652000000002</v>
+        <v>37.378450999999998</v>
       </c>
       <c r="C73" s="1">
-        <v>127.080834</v>
+        <v>127.08083499999999</v>
       </c>
       <c r="D73" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>37.378585999999999</v>
+        <v>37.378422</v>
       </c>
       <c r="C74" s="1">
-        <v>127.080842</v>
+        <v>127.08080699999999</v>
       </c>
       <c r="D74" s="1">
-        <v>150.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153.69999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>37.378529</v>
+        <v>37.378397999999997</v>
       </c>
       <c r="C75" s="1">
-        <v>127.080842</v>
+        <v>127.080793</v>
       </c>
       <c r="D75" s="1">
-        <v>151.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>37.378478000000001</v>
+        <v>37.37838</v>
       </c>
       <c r="C76" s="1">
-        <v>127.08084700000001</v>
+        <v>127.080783</v>
       </c>
       <c r="D76" s="1">
-        <v>152.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.19999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>37.378450999999998</v>
+        <v>37.378369999999997</v>
       </c>
       <c r="C77" s="1">
-        <v>127.08083499999999</v>
+        <v>127.080775</v>
       </c>
       <c r="D77" s="1">
-        <v>153.30000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>37.378422</v>
+        <v>37.378362000000003</v>
       </c>
       <c r="C78" s="1">
-        <v>127.08080699999999</v>
+        <v>127.080766</v>
       </c>
       <c r="D78" s="1">
-        <v>153.69999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>37.378397999999997</v>
+        <v>37.378352999999997</v>
       </c>
       <c r="C79" s="1">
-        <v>127.080793</v>
+        <v>127.080761</v>
       </c>
       <c r="D79" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>37.37838</v>
+        <v>37.378343999999998</v>
       </c>
       <c r="C80" s="1">
-        <v>127.080783</v>
+        <v>127.080753</v>
       </c>
       <c r="D80" s="1">
-        <v>154.19999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>37.378369999999997</v>
+        <v>37.378334000000002</v>
       </c>
       <c r="C81" s="1">
-        <v>127.080775</v>
+        <v>127.080754</v>
       </c>
       <c r="D81" s="1">
-        <v>154.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>37.378362000000003</v>
+        <v>37.378323999999999</v>
       </c>
       <c r="C82" s="1">
-        <v>127.080766</v>
+        <v>127.08074999999999</v>
       </c>
       <c r="D82" s="1">
-        <v>154.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>37.378352999999997</v>
+        <v>37.378312999999999</v>
       </c>
       <c r="C83" s="1">
-        <v>127.080761</v>
+        <v>127.080748</v>
       </c>
       <c r="D83" s="1">
-        <v>154.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>37.378343999999998</v>
+        <v>37.378304999999997</v>
       </c>
       <c r="C84" s="1">
-        <v>127.080753</v>
+        <v>127.08074999999999</v>
       </c>
       <c r="D84" s="1">
-        <v>154.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>37.378334000000002</v>
+        <v>37.378295999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>127.080754</v>
+        <v>127.080758</v>
       </c>
       <c r="D85" s="1">
-        <v>154.69999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>37.378323999999999</v>
+        <v>37.378286000000003</v>
       </c>
       <c r="C86" s="1">
-        <v>127.08074999999999</v>
+        <v>127.08076699999999</v>
       </c>
       <c r="D86" s="1">
-        <v>154.80000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>37.378312999999999</v>
+        <v>37.378304</v>
       </c>
       <c r="C87" s="1">
-        <v>127.080748</v>
+        <v>127.080769</v>
       </c>
       <c r="D87" s="1">
-        <v>154.80000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>37.378304999999997</v>
+        <v>37.378321</v>
       </c>
       <c r="C88" s="1">
-        <v>127.08074999999999</v>
+        <v>127.08076699999999</v>
       </c>
       <c r="D88" s="1">
         <v>154.9</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>37.378295999999999</v>
+        <v>37.378335</v>
       </c>
       <c r="C89" s="1">
-        <v>127.080758</v>
+        <v>127.08076800000001</v>
       </c>
       <c r="D89" s="1">
-        <v>154.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>37.378286000000003</v>
+        <v>37.378349</v>
       </c>
       <c r="C90" s="1">
-        <v>127.08076699999999</v>
+        <v>127.080771</v>
       </c>
       <c r="D90" s="1">
-        <v>155.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>37.378304</v>
+        <v>37.378363</v>
       </c>
       <c r="C91" s="1">
-        <v>127.080769</v>
+        <v>127.080781</v>
       </c>
       <c r="D91" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>37.378321</v>
+        <v>37.378376000000003</v>
       </c>
       <c r="C92" s="1">
-        <v>127.08076699999999</v>
+        <v>127.080789</v>
       </c>
       <c r="D92" s="1">
-        <v>154.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>37.378335</v>
+        <v>37.378368000000002</v>
       </c>
       <c r="C93" s="1">
-        <v>127.08076800000001</v>
+        <v>127.080798</v>
       </c>
       <c r="D93" s="1">
-        <v>154.69999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>37.378349</v>
+        <v>37.378352999999997</v>
       </c>
       <c r="C94" s="1">
-        <v>127.080771</v>
+        <v>127.080792</v>
       </c>
       <c r="D94" s="1">
         <v>154.6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>37.378363</v>
+        <v>37.378340999999999</v>
       </c>
       <c r="C95" s="1">
-        <v>127.080781</v>
+        <v>127.080789</v>
       </c>
       <c r="D95" s="1">
-        <v>154.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>37.378376000000003</v>
+        <v>37.378331000000003</v>
       </c>
       <c r="C96" s="1">
-        <v>127.080789</v>
+        <v>127.080787</v>
       </c>
       <c r="D96" s="1">
-        <v>154.30000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>37.378368000000002</v>
+        <v>37.378321</v>
       </c>
       <c r="C97" s="1">
-        <v>127.080798</v>
+        <v>127.08078500000001</v>
       </c>
       <c r="D97" s="1">
-        <v>154.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>37.378352999999997</v>
+        <v>37.378312999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>127.080792</v>
+        <v>127.080782</v>
       </c>
       <c r="D98" s="1">
-        <v>154.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>37.378340999999999</v>
+        <v>37.378301</v>
       </c>
       <c r="C99" s="1">
-        <v>127.080789</v>
+        <v>127.080782</v>
       </c>
       <c r="D99" s="1">
-        <v>154.69999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>37.378331000000003</v>
+        <v>37.378287999999998</v>
       </c>
       <c r="C100" s="1">
-        <v>127.080787</v>
+        <v>127.080783</v>
       </c>
       <c r="D100" s="1">
-        <v>154.80000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155.19999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>37.378321</v>
+        <v>37.378264999999999</v>
       </c>
       <c r="C101" s="1">
-        <v>127.08078500000001</v>
+        <v>127.080777</v>
       </c>
       <c r="D101" s="1">
-        <v>154.9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155.69999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>37.378312999999999</v>
+        <v>37.378239999999998</v>
       </c>
       <c r="C102" s="1">
-        <v>127.080782</v>
+        <v>127.08074999999999</v>
       </c>
       <c r="D102" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>37.378301</v>
+        <v>37.378217999999997</v>
       </c>
       <c r="C103" s="1">
-        <v>127.080782</v>
+        <v>127.08073</v>
       </c>
       <c r="D103" s="1">
-        <v>155.1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>37.378287999999998</v>
+        <v>37.378196000000003</v>
       </c>
       <c r="C104" s="1">
-        <v>127.080783</v>
+        <v>127.080716</v>
       </c>
       <c r="D104" s="1">
-        <v>155.19999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>37.378264999999999</v>
+        <v>37.378168000000002</v>
       </c>
       <c r="C105" s="1">
-        <v>127.080777</v>
+        <v>127.080697</v>
       </c>
       <c r="D105" s="1">
-        <v>155.69999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>37.378239999999998</v>
+        <v>37.378138</v>
       </c>
       <c r="C106" s="1">
-        <v>127.08074999999999</v>
+        <v>127.080674</v>
       </c>
       <c r="D106" s="1">
-        <v>156.1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>37.378217999999997</v>
+        <v>37.378115000000001</v>
       </c>
       <c r="C107" s="1">
-        <v>127.08073</v>
+        <v>127.080662</v>
       </c>
       <c r="D107" s="1">
-        <v>156.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>37.378196000000003</v>
+        <v>37.378059999999998</v>
       </c>
       <c r="C108" s="1">
-        <v>127.080716</v>
+        <v>127.080653</v>
       </c>
       <c r="D108" s="1">
-        <v>156.9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>37.378168000000002</v>
+        <v>37.377996000000003</v>
       </c>
       <c r="C109" s="1">
-        <v>127.080697</v>
+        <v>127.08069</v>
       </c>
       <c r="D109" s="1">
-        <v>157.1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>37.378138</v>
+        <v>37.377946999999999</v>
       </c>
       <c r="C110" s="1">
-        <v>127.080674</v>
+        <v>127.08072799999999</v>
       </c>
       <c r="D110" s="1">
-        <v>157.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>37.378115000000001</v>
+        <v>37.377896</v>
       </c>
       <c r="C111" s="1">
-        <v>127.080662</v>
+        <v>127.080792</v>
       </c>
       <c r="D111" s="1">
-        <v>158.19999999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>37.378059999999998</v>
+        <v>37.377831999999998</v>
       </c>
       <c r="C112" s="1">
-        <v>127.080653</v>
+        <v>127.08087500000001</v>
       </c>
       <c r="D112" s="1">
-        <v>163.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" s="1">
-        <v>37.377996000000003</v>
-      </c>
-      <c r="C113" s="1">
-        <v>127.08069</v>
-      </c>
-      <c r="D113" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" s="1">
-        <v>37.377946999999999</v>
-      </c>
-      <c r="C114" s="1">
-        <v>127.08072799999999</v>
-      </c>
-      <c r="D114" s="1">
-        <v>180.8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" s="1">
-        <v>37.377896</v>
-      </c>
-      <c r="C115" s="1">
-        <v>127.080792</v>
-      </c>
-      <c r="D115" s="1">
-        <v>182.9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" s="1">
-        <v>37.377831999999998</v>
-      </c>
-      <c r="C116" s="1">
-        <v>127.08087500000001</v>
-      </c>
-      <c r="D116" s="1">
         <v>182.8</v>
       </c>
     </row>
@@ -2046,7 +1990,7 @@
       <selection sqref="A1:FR1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
